--- a/biology/Histoire de la zoologie et de la botanique/Adrien_Rivard/Adrien_Rivard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adrien_Rivard/Adrien_Rivard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adrien Rivard (29 août 1890 — 12 décembre 1969) est un botaniste, naturaliste, ornithologue, philatéliste, documentariste et un professeur[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adrien Rivard (29 août 1890 — 12 décembre 1969) est un botaniste, naturaliste, ornithologue, philatéliste, documentariste et un professeur,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Frère Adrien Rivard est né à Sainte-Geneviève de Pierrefonds, le 29 août 1890[3]. À l'âge de douze ans, il entre au juvénat des Frères de Sainte-Croix dans le quartier Côte-des-Neiges de l'île de Montréal. Il y restera jusqu'en janvier 1906. Il entre ensuite au noviciat de la même communauté à Sainte-Geneviève. C'est à cet endroit qu'il s'initie à la vie religieuse et qu'il adopte le nom de frère Adrien. Durant sa deuxième année de noviciat, il enseigne aux plus jeunes, mais il passe aussi beaucoup de temps à s'instruire, de façon autodidacte, sur différents sujets concernant la littérature et les sciences. On dit qu'il a appris, entre autres choses, l'espagnol et l'anglais et qu'il connaissait par cœur plusieurs œuvres du théâtre classique français[4]. En 1923, il est nommé professeur à l'école Beaudet de Ville Saint-Laurent où il enseignera jusqu'en 1931. En 1925, il fonde un club Audubon junior (club scientifique), projet duquel il s'inspirera pour créer, en 1931, les Cercles des jeunes naturalistes[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Frère Adrien Rivard est né à Sainte-Geneviève de Pierrefonds, le 29 août 1890. À l'âge de douze ans, il entre au juvénat des Frères de Sainte-Croix dans le quartier Côte-des-Neiges de l'île de Montréal. Il y restera jusqu'en janvier 1906. Il entre ensuite au noviciat de la même communauté à Sainte-Geneviève. C'est à cet endroit qu'il s'initie à la vie religieuse et qu'il adopte le nom de frère Adrien. Durant sa deuxième année de noviciat, il enseigne aux plus jeunes, mais il passe aussi beaucoup de temps à s'instruire, de façon autodidacte, sur différents sujets concernant la littérature et les sciences. On dit qu'il a appris, entre autres choses, l'espagnol et l'anglais et qu'il connaissait par cœur plusieurs œuvres du théâtre classique français. En 1923, il est nommé professeur à l'école Beaudet de Ville Saint-Laurent où il enseignera jusqu'en 1931. En 1925, il fonde un club Audubon junior (club scientifique), projet duquel il s'inspirera pour créer, en 1931, les Cercles des jeunes naturalistes.
 En plus, de diriger les Cercles des Jeunes Naturalistes, le Frère Adrien participait à plusieurs activités. Il s'intéressait, entre autres, à l'architecture paysagiste, à l'organisation d'expositions, aux voyages d'exploration et à la photographie. Il est forcé d'abandonner ses activités professionnelles au début des années 1960 pour cause de maladie.
 </t>
         </is>
